--- a/Opollo/src/test/data/Opollo/U2C.xlsx
+++ b/Opollo/src/test/data/Opollo/U2C.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Platform</t>
   </si>
@@ -126,10 +126,10 @@
     <t>Unicharm C2C - Shopee</t>
   </si>
   <si>
-    <t>230928HP7HKGV4</t>
-  </si>
-  <si>
-    <t>2023-09-28 20:46:31</t>
+    <t>230909UQT6HAUV</t>
+  </si>
+  <si>
+    <t>2023-09-09 17:08:08</t>
   </si>
   <si>
     <t>main</t>
@@ -156,37 +156,154 @@
     <t>TNSL SGN</t>
   </si>
   <si>
-    <t>230929KBXR6KMW</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:47:59</t>
-  </si>
-  <si>
-    <t>wallet</t>
-  </si>
-  <si>
-    <t>230929M1QVJH03</t>
-  </si>
-  <si>
-    <t>2023-09-29 19:17:50</t>
+    <t>2309100Q041A83</t>
+  </si>
+  <si>
+    <t>2023-09-10 12:58:20</t>
+  </si>
+  <si>
+    <t>2309113DEKMYX8</t>
+  </si>
+  <si>
+    <t>2023-09-11 14:45:28</t>
   </si>
   <si>
     <t>cod</t>
   </si>
   <si>
-    <t>230929M1YX1PWE</t>
-  </si>
-  <si>
-    <t>2023-09-29 19:22:21</t>
+    <t>2309113QKKFRNU</t>
+  </si>
+  <si>
+    <t>2023-09-11 17:47:13</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>2309125NKV31FB</t>
+  </si>
+  <si>
+    <t>2023-09-12 12:16:54</t>
   </si>
   <si>
     <t>3DMASK</t>
   </si>
   <si>
-    <t>230930P22KE4JJ</t>
-  </si>
-  <si>
-    <t>2023-09-30 14:29:09</t>
+    <t>230915C031M3P0</t>
+  </si>
+  <si>
+    <t>2023-09-15 00:40:20</t>
+  </si>
+  <si>
+    <t>8934755049460</t>
+  </si>
+  <si>
+    <t>Combo 5 gói Khẩu trang Virus 5pcs M tặng 1 khẩu trang Virus 5pcs M </t>
+  </si>
+  <si>
+    <t>230915CGV4SY4M</t>
+  </si>
+  <si>
+    <t>2023-09-15 05:40:41</t>
+  </si>
+  <si>
+    <t>230916FPVUX32X</t>
+  </si>
+  <si>
+    <t>2023-09-16 12:06:27</t>
+  </si>
+  <si>
+    <t>230918MDJMV6E1</t>
+  </si>
+  <si>
+    <t>2023-09-18 09:02:59</t>
+  </si>
+  <si>
+    <t>TUBB000655CB</t>
+  </si>
+  <si>
+    <t>8934755030567: 3</t>
+  </si>
+  <si>
+    <t>Combo 3 Tã dán Bobby siêu thấm và khô thoáng đủ size M76/L68/XL62/XXL56</t>
+  </si>
+  <si>
+    <t>230918NJCSF7PB</t>
+  </si>
+  <si>
+    <t>2023-09-18 20:01:52</t>
+  </si>
+  <si>
+    <t>230919QWM3GTED</t>
+  </si>
+  <si>
+    <t>2023-09-19 18:28:08</t>
+  </si>
+  <si>
+    <t>8934755047459</t>
+  </si>
+  <si>
+    <t>Combo 6 gói Khăn ướt Bobby care 100 không mùi</t>
+  </si>
+  <si>
+    <t>230920S50PYE21</t>
+  </si>
+  <si>
+    <t>2023-09-20 06:13:06</t>
+  </si>
+  <si>
+    <t>230920SU3VPPPT</t>
+  </si>
+  <si>
+    <t>2023-09-20 12:48:35</t>
+  </si>
+  <si>
+    <t>230921U0YP1P9Y</t>
+  </si>
+  <si>
+    <t>2023-09-21 00:06:16</t>
+  </si>
+  <si>
+    <t>230921VD499ATE</t>
+  </si>
+  <si>
+    <t>2023-09-21 13:16:15</t>
+  </si>
+  <si>
+    <t>2309221K6SSKA3</t>
+  </si>
+  <si>
+    <t>2023-09-22 11:09:50</t>
+  </si>
+  <si>
+    <t>2309232XNRNH6G</t>
+  </si>
+  <si>
+    <t>2023-09-23 00:07:43</t>
+  </si>
+  <si>
+    <t>8934755051296</t>
+  </si>
+  <si>
+    <t>Tã Bobby Quần Extra Soft Dry XXL42 (tặng thêm 4 miếng)</t>
+  </si>
+  <si>
+    <t>230925961NJA0M</t>
+  </si>
+  <si>
+    <t>2023-09-25 11:35:37</t>
+  </si>
+  <si>
+    <t>230926AFMW7W47</t>
+  </si>
+  <si>
+    <t>2023-09-26 00:00:06</t>
+  </si>
+  <si>
+    <t>230927DGU4M00V</t>
+  </si>
+  <si>
+    <t>2023-09-27 04:59:27</t>
   </si>
   <si>
     <t>8934755061486</t>
@@ -195,85 +312,16 @@
     <t>Khẩu trang Unicharm 3D Mask High Block hộp 100 miếng tặng kèm 1 Hộp bông tẩy trang cao cấp Silcot Premium 66 miếng</t>
   </si>
   <si>
-    <t>231001RYSPKW85</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:26:23</t>
-  </si>
-  <si>
-    <t>8934755047459</t>
-  </si>
-  <si>
-    <t>Combo 6 gói Khăn ướt Bobby care 100 không mùi</t>
-  </si>
-  <si>
-    <t>23100308NC1CSA</t>
-  </si>
-  <si>
-    <t>2023-10-03 12:15:08</t>
-  </si>
-  <si>
-    <t>2310030F7XPVK3</t>
-  </si>
-  <si>
-    <t>2023-10-03 14:12:54</t>
-  </si>
-  <si>
-    <t>2310042TE4FECQ</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:38:31</t>
-  </si>
-  <si>
-    <t>2310043KTV5TJ2</t>
-  </si>
-  <si>
-    <t>2023-10-04 20:13:02</t>
-  </si>
-  <si>
-    <t>2310055ACAY4A6</t>
-  </si>
-  <si>
-    <t>2023-10-05 12:29:10</t>
-  </si>
-  <si>
-    <t>231009F2D9XJUX</t>
-  </si>
-  <si>
-    <t>2023-10-09 09:33:10</t>
-  </si>
-  <si>
-    <t>231010GMM3B3VV</t>
-  </si>
-  <si>
-    <t>2023-10-10 00:31:46</t>
-  </si>
-  <si>
-    <t>8934755047428</t>
-  </si>
-  <si>
-    <t>Combo 4 gói khăn ướt Bobby Care có hương 100 tờ</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>231011N6QCWRD6</t>
-  </si>
-  <si>
-    <t>2023-10-11 20:06:23</t>
-  </si>
-  <si>
-    <t>2310177AX4T4U1</t>
-  </si>
-  <si>
-    <t>2023-10-17 21:31:08</t>
-  </si>
-  <si>
-    <t>2310297DX7FUX6</t>
-  </si>
-  <si>
-    <t>2023-10-29 12:11:31</t>
+    <t>230929KC4VPVE2</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:51:24</t>
+  </si>
+  <si>
+    <t>8934755051272</t>
+  </si>
+  <si>
+    <t>(Tặng 2 miếng) Tã quần cao cấp Bobby Extra Soft Dry thun chân ngăn hằn đủ size L52</t>
   </si>
   <si>
     <t>SKU</t>
@@ -387,12 +435,6 @@
     <t>0.0%</t>
   </si>
   <si>
-    <t>-3.999%</t>
-  </si>
-  <si>
-    <t>0.001%</t>
-  </si>
-  <si>
     <t>LazSubsidy</t>
   </si>
   <si>
@@ -471,10 +513,10 @@
     <t>%Service Fee</t>
   </si>
   <si>
+    <t>-6.65%</t>
+  </si>
+  <si>
     <t>-7.0%</t>
-  </si>
-  <si>
-    <t>-6.65%</t>
   </si>
   <si>
     <t>LCP Fee</t>
@@ -996,7 +1038,7 @@
         <v>2.15e4</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="X3" s="0" t="s">
         <v>38</v>
@@ -1025,10 +1067,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>33</v>
@@ -1082,7 +1124,7 @@
         <v>2.15e4</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" s="0" t="s">
         <v>38</v>
@@ -1111,10 +1153,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>33</v>
@@ -1132,13 +1174,13 @@
         <v>36</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>142500</v>
+        <v>285000</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>1.21e5</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>121000</v>
+        <v>242000</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>35</v>
@@ -1153,22 +1195,22 @@
         <v>0.0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.42e5</v>
       </c>
       <c r="T5" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>142500</v>
+        <v>570000</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>2.15e4</v>
+        <v>3.28e5</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="X5" s="0" t="s">
         <v>38</v>
@@ -1191,40 +1233,40 @@
         <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>495900</v>
+        <v>142500</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>359000</v>
+        <v>121000</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>35</v>
@@ -1242,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="T6" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>495900</v>
+        <v>142500</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>1.369e5</v>
+        <v>2.15e4</v>
       </c>
       <c r="W6" s="0" t="s">
         <v>37</v>
@@ -1277,40 +1319,40 @@
         <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>246000</v>
+        <v>135000</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>209000</v>
+        <v>135000</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>35</v>
@@ -1328,19 +1370,19 @@
         <v>1</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="T7" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>246000</v>
+        <v>135000</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>3.7e4</v>
+        <v>0.0</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="X7" s="0" t="s">
         <v>38</v>
@@ -1369,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>33</v>
@@ -1455,10 +1497,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>33</v>
@@ -1476,13 +1518,13 @@
         <v>36</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>285000</v>
+        <v>142500</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>1.21e5</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>242000</v>
+        <v>121000</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>35</v>
@@ -1497,22 +1539,22 @@
         <v>0.0</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>2.42e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="T9" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>570000</v>
+        <v>142500</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>3.28e5</v>
+        <v>2.15e4</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="X9" s="0" t="s">
         <v>38</v>
@@ -1541,34 +1583,34 @@
         <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>142500</v>
+        <v>1110300</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1.21e5</v>
+        <v>9.27e5</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>121000</v>
+        <v>927000</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>35</v>
@@ -1586,16 +1628,16 @@
         <v>1</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>1.21e5</v>
+        <v>9.27e5</v>
       </c>
       <c r="T10" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>142500</v>
+        <v>1110300</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>2.15e4</v>
+        <v>1.833e5</v>
       </c>
       <c r="W10" s="0" t="s">
         <v>37</v>
@@ -1627,10 +1669,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>33</v>
@@ -1713,34 +1755,34 @@
         <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>142500</v>
+        <v>738000</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>121000</v>
+        <v>627000</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>35</v>
@@ -1755,22 +1797,22 @@
         <v>0.0</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1.21e5</v>
+        <v>6.27e5</v>
       </c>
       <c r="T12" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>142500</v>
+        <v>2214000</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>2.15e4</v>
+        <v>1.587e6</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="X12" s="0" t="s">
         <v>38</v>
@@ -1799,10 +1841,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>33</v>
@@ -1820,13 +1862,13 @@
         <v>36</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>570000</v>
+        <v>712500</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>1.21e5</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>484000</v>
+        <v>605000</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>35</v>
@@ -1841,22 +1883,22 @@
         <v>0.0</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>4.84e5</v>
+        <v>6.05e5</v>
       </c>
       <c r="T13" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>2280000</v>
+        <v>3562500</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>1.796e6</v>
+        <v>2.9575e6</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="X13" s="0" t="s">
         <v>38</v>
@@ -1885,34 +1927,34 @@
         <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>164000</v>
+        <v>142500</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1.33e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>133000</v>
+        <v>121000</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>35</v>
@@ -1930,19 +1972,19 @@
         <v>1</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>1.33e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="T14" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>164000</v>
+        <v>142500</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>3.1e4</v>
+        <v>2.15e4</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="X14" s="0" t="s">
         <v>38</v>
@@ -1971,34 +2013,34 @@
         <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>246000</v>
+        <v>142500</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>209000</v>
+        <v>121000</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>35</v>
@@ -2016,19 +2058,19 @@
         <v>1</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="T15" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>246000</v>
+        <v>142500</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>3.7e4</v>
+        <v>2.15e4</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X15" s="0" t="s">
         <v>38</v>
@@ -2057,34 +2099,34 @@
         <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>142500</v>
+        <v>246000</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>121000</v>
+        <v>209000</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>35</v>
@@ -2102,19 +2144,19 @@
         <v>1</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="T16" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>142500</v>
+        <v>246000</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>2.15e4</v>
+        <v>3.7e4</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="X16" s="0" t="s">
         <v>38</v>
@@ -2143,10 +2185,10 @@
         <v>30</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>33</v>
@@ -2200,7 +2242,7 @@
         <v>3.28e5</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X17" s="0" t="s">
         <v>38</v>
@@ -2229,34 +2271,34 @@
         <v>30</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>142500</v>
+        <v>377300</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>1.21e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>121000</v>
+        <v>377300</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>35</v>
@@ -2274,19 +2316,19 @@
         <v>1</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>1.21e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="T18" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>142500</v>
+        <v>377300</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>2.15e4</v>
+        <v>0.0</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="X18" s="0" t="s">
         <v>38</v>
@@ -2301,6 +2343,350 @@
         <v>35</v>
       </c>
       <c r="AB18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>246000</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>209000</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>246000</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>3.7e4</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>246000</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>209000</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>246000</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>3.7e4</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>495900</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>3.59e5</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>359000</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>3.59e5</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>495900</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>1.369e5</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>754600</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>2.98e5</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>596000</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>5.96e5</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>1509200</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>9.132e5</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB22" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2363,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2372,16 +2758,16 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2446,25 +2832,25 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2529,19 +2915,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2606,37 +2992,37 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2701,61 +3087,61 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
@@ -2811,13 +3197,13 @@
         <v>0.0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>6.37e4</v>
+        <v>7.1e4</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>-6.37e4</v>
+        <v>-7.1e4</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>-8470.0</v>
+        <v>-8047.0</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>1.21e5</v>
@@ -2826,7 +3212,7 @@
         <v>0.0</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -2882,13 +3268,13 @@
         <v>0.0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>6.37e4</v>
+        <v>5.77e4</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>-6.37e4</v>
+        <v>-5.77e4</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-8470.0</v>
+        <v>-8047.0</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>1.21e5</v>
@@ -2897,7 +3283,7 @@
         <v>0.0</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -2908,10 +3294,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>34</v>
@@ -2953,10 +3339,10 @@
         <v>0.0</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>4.41e4</v>
+        <v>2.07e4</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>-4.41e4</v>
+        <v>-2.07e4</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>-8047.0</v>
@@ -2968,7 +3354,7 @@
         <v>0.0</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -2979,10 +3365,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>34</v>
@@ -3024,22 +3410,22 @@
         <v>0.0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>4.41e4</v>
+        <v>7.1e4</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>-4.41e4</v>
+        <v>-7.1e4</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>-8047.0</v>
+        <v>-16093.0</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.42e5</v>
       </c>
       <c r="V5" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -3047,19 +3433,19 @@
         <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0.0</v>
@@ -3095,22 +3481,22 @@
         <v>0.0</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>1.83e4</v>
+        <v>5.77e4</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>-1.83e4</v>
+        <v>-5.77e4</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>-23874.0</v>
+        <v>-8470.0</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="V6" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
@@ -3118,19 +3504,19 @@
         <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.0</v>
@@ -3166,22 +3552,22 @@
         <v>0.0</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>2.07e4</v>
+        <v>3.28e4</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>-2.07e4</v>
+        <v>-3.28e4</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>-14630.0</v>
+        <v>-8978.0</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -3192,10 +3578,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>34</v>
@@ -3237,10 +3623,10 @@
         <v>0.0</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>6.37e4</v>
+        <v>5.77e4</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>-6.37e4</v>
+        <v>-5.77e4</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>-8470.0</v>
@@ -3252,7 +3638,7 @@
         <v>0.0</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
@@ -3263,10 +3649,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>34</v>
@@ -3308,22 +3694,22 @@
         <v>0.0</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>7.1e4</v>
+        <v>5.77e4</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>-7.1e4</v>
+        <v>-5.77e4</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>-16940.0</v>
+        <v>-8470.0</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>2.42e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="V9" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
@@ -3334,16 +3720,16 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" s="0" t="n">
-        <v>1.21e5</v>
+        <v>9.27e5</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.0</v>
@@ -3379,22 +3765,22 @@
         <v>0.0</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>6.37e4</v>
+        <v>5.24e4</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>-6.37e4</v>
+        <v>-5.24e4</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>-8470.0</v>
+        <v>-61646.0</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>1.21e5</v>
+        <v>9.27e5</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -3405,10 +3791,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>34</v>
@@ -3450,10 +3836,10 @@
         <v>0.0</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>6.33e4</v>
+        <v>5.77e4</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>-6.33e4</v>
+        <v>-5.77e4</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>-8470.0</v>
@@ -3465,7 +3851,7 @@
         <v>0.0</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -3476,16 +3862,16 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.0</v>
@@ -3521,22 +3907,22 @@
         <v>0.0</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>6.37e4</v>
+        <v>4.28e4</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>-6.37e4</v>
+        <v>-4.28e4</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>-8470.0</v>
+        <v>-41696.0</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>1.21e5</v>
+        <v>6.27e5</v>
       </c>
       <c r="V12" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -3547,10 +3933,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>34</v>
@@ -3592,22 +3978,22 @@
         <v>0.0</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>1.12e5</v>
+        <v>1.325e5</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>-1.12e5</v>
+        <v>-1.325e5</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>-33880.0</v>
+        <v>-40233.0</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>4.84e5</v>
+        <v>6.05e5</v>
       </c>
       <c r="V13" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -3618,16 +4004,16 @@
         <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1.33e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0.0</v>
@@ -3663,22 +4049,22 @@
         <v>0.0</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>15711.1156</v>
+        <v>5.01e4</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>-15711.1156</v>
+        <v>-5.01e4</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>-9310.00266</v>
+        <v>-8047.0</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>1.33e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -3689,16 +4075,16 @@
         <v>29</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.0</v>
@@ -3734,22 +4120,22 @@
         <v>0.0</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>24688.8844</v>
+        <v>6.33e4</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>-24688.8844</v>
+        <v>-6.33e4</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>-14629.99734</v>
+        <v>-8470.0</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="V15" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -3760,16 +4146,16 @@
         <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.0</v>
@@ -3805,22 +4191,22 @@
         <v>0.0</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>6.37e4</v>
+        <v>2.07e4</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>-6.37e4</v>
+        <v>-2.07e4</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>-8470.0</v>
+        <v>-13899.0</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -3831,10 +4217,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>34</v>
@@ -3891,7 +4277,7 @@
         <v>0.0</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -3902,16 +4288,16 @@
         <v>29</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1.21e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.0</v>
@@ -3947,22 +4333,306 @@
         <v>0.0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>4.41e4</v>
+        <v>2.61e4</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>-4.41e4</v>
+        <v>-2.61e4</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>-8470.0</v>
+        <v>-25090.0</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>1.21e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>2.07e4</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>-2.07e4</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>-13899.0</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>2.07e4</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>-2.07e4</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>-14630.0</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>3.59e5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>3.22e4</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>-3.22e4</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>-25130.0</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>3.59e5</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2.98e5</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>2.84e4</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>-2.84e4</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>-39634.0</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>5.96e5</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4027,22 +4697,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4104,13 +4774,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4175,13 +4845,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4246,202 +4916,202 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="BO1" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
@@ -4641,7 +5311,7 @@
         <v>0.0</v>
       </c>
       <c r="BN2" s="0" t="n">
-        <v>2.0e4</v>
+        <v>9196.0</v>
       </c>
       <c r="BO2" s="0" t="n">
         <v>0.0</v>
@@ -4853,13 +5523,13 @@
         <v>0.0</v>
       </c>
       <c r="BN3" s="0" t="n">
-        <v>30250.0</v>
+        <v>2.0e4</v>
       </c>
       <c r="BO3" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="BP3" s="0" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="BQ3" s="0" t="n">
         <v>0.0</v>
@@ -4876,10 +5546,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>34</v>
@@ -5065,7 +5735,7 @@
         <v>0.0</v>
       </c>
       <c r="BN4" s="0" t="n">
-        <v>28738.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO4" s="0" t="n">
         <v>0.0</v>
@@ -5088,16 +5758,16 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.425e5</v>
+        <v>2.85e5</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0.0</v>
@@ -5106,7 +5776,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>2.15e4</v>
+        <v>4.3e4</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1.21e5</v>
@@ -5136,7 +5806,7 @@
         <v>0.0</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.42e5</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>0.0</v>
@@ -5277,7 +5947,7 @@
         <v>0.0</v>
       </c>
       <c r="BN5" s="0" t="n">
-        <v>28738.0</v>
+        <v>8.0e4</v>
       </c>
       <c r="BO5" s="0" t="n">
         <v>0.0</v>
@@ -5297,19 +5967,19 @@
         <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4.959e5</v>
+        <v>1.425e5</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0.0</v>
@@ -5318,10 +5988,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1.369e5</v>
+        <v>2.15e4</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>0.0</v>
@@ -5348,7 +6018,7 @@
         <v>0.0</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>0.0</v>
@@ -5459,7 +6129,7 @@
         <v>0.0</v>
       </c>
       <c r="BD6" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="BE6" s="0" t="n">
         <v>0.0</v>
@@ -5489,7 +6159,7 @@
         <v>0.0</v>
       </c>
       <c r="BN6" s="0" t="n">
-        <v>34105.0</v>
+        <v>30250.0</v>
       </c>
       <c r="BO6" s="0" t="n">
         <v>0.0</v>
@@ -5509,19 +6179,19 @@
         <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" s="0" t="n">
-        <v>2.46e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.0</v>
@@ -5530,10 +6200,10 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3.7e4</v>
+        <v>0.0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>0.0</v>
@@ -5560,7 +6230,7 @@
         <v>0.0</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>0.0</v>
@@ -5671,7 +6341,7 @@
         <v>0.0</v>
       </c>
       <c r="BD7" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="BE7" s="0" t="n">
         <v>0.0</v>
@@ -5701,7 +6371,7 @@
         <v>0.0</v>
       </c>
       <c r="BN7" s="0" t="n">
-        <v>4.0e4</v>
+        <v>10260.0</v>
       </c>
       <c r="BO7" s="0" t="n">
         <v>0.0</v>
@@ -5724,10 +6394,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>34</v>
@@ -5913,7 +6583,7 @@
         <v>0.0</v>
       </c>
       <c r="BN8" s="0" t="n">
-        <v>30250.0</v>
+        <v>2.5e4</v>
       </c>
       <c r="BO8" s="0" t="n">
         <v>0.0</v>
@@ -5936,16 +6606,16 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2.85e5</v>
+        <v>1.425e5</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0.0</v>
@@ -5954,7 +6624,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>4.3e4</v>
+        <v>2.15e4</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>1.21e5</v>
@@ -5984,7 +6654,7 @@
         <v>0.0</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>2.42e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>0.0</v>
@@ -6125,7 +6795,7 @@
         <v>0.0</v>
       </c>
       <c r="BN9" s="0" t="n">
-        <v>0.0</v>
+        <v>30250.0</v>
       </c>
       <c r="BO9" s="0" t="n">
         <v>0.0</v>
@@ -6148,16 +6818,16 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" s="0" t="n">
-        <v>1.425e5</v>
+        <v>1.1103e6</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.0</v>
@@ -6166,10 +6836,10 @@
         <v>0.0</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2.15e4</v>
+        <v>1.833e5</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1.21e5</v>
+        <v>9.27e5</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>0.0</v>
@@ -6196,7 +6866,7 @@
         <v>0.0</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>1.21e5</v>
+        <v>9.27e5</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>0.0</v>
@@ -6307,7 +6977,7 @@
         <v>0.0</v>
       </c>
       <c r="BD10" s="0" t="n">
-        <v>1.21e5</v>
+        <v>9.27e5</v>
       </c>
       <c r="BE10" s="0" t="n">
         <v>0.0</v>
@@ -6337,13 +7007,13 @@
         <v>0.0</v>
       </c>
       <c r="BN10" s="0" t="n">
-        <v>30250.0</v>
+        <v>7.0e4</v>
       </c>
       <c r="BO10" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="BP10" s="0" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="BQ10" s="0" t="n">
         <v>0.0</v>
@@ -6360,10 +7030,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>34</v>
@@ -6549,7 +7219,7 @@
         <v>0.0</v>
       </c>
       <c r="BN11" s="0" t="n">
-        <v>0.0</v>
+        <v>2.5e4</v>
       </c>
       <c r="BO11" s="0" t="n">
         <v>0.0</v>
@@ -6572,16 +7242,16 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1.425e5</v>
+        <v>7.38e5</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.0</v>
@@ -6590,10 +7260,10 @@
         <v>0.0</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>2.15e4</v>
+        <v>1.11e5</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>0.0</v>
@@ -6620,7 +7290,7 @@
         <v>0.0</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1.21e5</v>
+        <v>6.27e5</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>0.0</v>
@@ -6731,7 +7401,7 @@
         <v>0.0</v>
       </c>
       <c r="BD12" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="BE12" s="0" t="n">
         <v>0.0</v>
@@ -6761,7 +7431,7 @@
         <v>0.0</v>
       </c>
       <c r="BN12" s="0" t="n">
-        <v>30250.0</v>
+        <v>47652.0</v>
       </c>
       <c r="BO12" s="0" t="n">
         <v>0.0</v>
@@ -6784,16 +7454,16 @@
         <v>29</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>5.7e5</v>
+        <v>7.125e5</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.0</v>
@@ -6802,7 +7472,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>8.6e4</v>
+        <v>1.075e5</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1.21e5</v>
@@ -6832,7 +7502,7 @@
         <v>0.0</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>4.84e5</v>
+        <v>6.05e5</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>0.0</v>
@@ -6973,7 +7643,7 @@
         <v>0.0</v>
       </c>
       <c r="BN13" s="0" t="n">
-        <v>0.0</v>
+        <v>45980.0</v>
       </c>
       <c r="BO13" s="0" t="n">
         <v>0.0</v>
@@ -6996,16 +7666,16 @@
         <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1.64e5</v>
+        <v>1.425e5</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0.0</v>
@@ -7014,10 +7684,10 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>3.1e4</v>
+        <v>2.15e4</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1.33e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>0.0</v>
@@ -7044,7 +7714,7 @@
         <v>0.0</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>1.33e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>0.0</v>
@@ -7155,7 +7825,7 @@
         <v>0.0</v>
       </c>
       <c r="BD14" s="0" t="n">
-        <v>1.33e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="BE14" s="0" t="n">
         <v>0.0</v>
@@ -7170,10 +7840,10 @@
         <v>0.0</v>
       </c>
       <c r="BI14" s="0" t="n">
-        <v>0.388889</v>
+        <v>1.0</v>
       </c>
       <c r="BJ14" s="0" t="n">
-        <v>0.388889</v>
+        <v>1.0</v>
       </c>
       <c r="BK14" s="0" t="n">
         <v>0.0</v>
@@ -7185,7 +7855,7 @@
         <v>0.0</v>
       </c>
       <c r="BN14" s="0" t="n">
-        <v>10640.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO14" s="0" t="n">
         <v>0.0</v>
@@ -7208,16 +7878,16 @@
         <v>29</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.46e5</v>
+        <v>1.425e5</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.0</v>
@@ -7226,10 +7896,10 @@
         <v>0.0</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>3.7e4</v>
+        <v>2.15e4</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>0.0</v>
@@ -7256,7 +7926,7 @@
         <v>0.0</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>0.0</v>
@@ -7367,7 +8037,7 @@
         <v>0.0</v>
       </c>
       <c r="BD15" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="BE15" s="0" t="n">
         <v>0.0</v>
@@ -7382,10 +8052,10 @@
         <v>0.0</v>
       </c>
       <c r="BI15" s="0" t="n">
-        <v>0.611111</v>
+        <v>1.0</v>
       </c>
       <c r="BJ15" s="0" t="n">
-        <v>0.611111</v>
+        <v>1.0</v>
       </c>
       <c r="BK15" s="0" t="n">
         <v>0.0</v>
@@ -7397,7 +8067,7 @@
         <v>0.0</v>
       </c>
       <c r="BN15" s="0" t="n">
-        <v>16720.0</v>
+        <v>30250.0</v>
       </c>
       <c r="BO15" s="0" t="n">
         <v>0.0</v>
@@ -7420,16 +8090,16 @@
         <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1.425e5</v>
+        <v>2.46e5</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.0</v>
@@ -7438,10 +8108,10 @@
         <v>0.0</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>2.15e4</v>
+        <v>3.7e4</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>0.0</v>
@@ -7468,7 +8138,7 @@
         <v>0.0</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>0.0</v>
@@ -7579,7 +8249,7 @@
         <v>0.0</v>
       </c>
       <c r="BD16" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="BE16" s="0" t="n">
         <v>0.0</v>
@@ -7609,7 +8279,7 @@
         <v>0.0</v>
       </c>
       <c r="BN16" s="0" t="n">
-        <v>30250.0</v>
+        <v>29783.0</v>
       </c>
       <c r="BO16" s="0" t="n">
         <v>0.0</v>
@@ -7632,10 +8302,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>34</v>
@@ -7844,16 +8514,16 @@
         <v>29</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1.425e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.0</v>
@@ -7862,10 +8532,10 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>2.15e4</v>
+        <v>0.0</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>1.21e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>0.0</v>
@@ -7892,7 +8562,7 @@
         <v>0.0</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>1.21e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>0.0</v>
@@ -8003,7 +8673,7 @@
         <v>0.0</v>
       </c>
       <c r="BD18" s="0" t="n">
-        <v>1.21e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="BE18" s="0" t="n">
         <v>0.0</v>
@@ -8033,7 +8703,7 @@
         <v>0.0</v>
       </c>
       <c r="BN18" s="0" t="n">
-        <v>0.0</v>
+        <v>28675.0</v>
       </c>
       <c r="BO18" s="0" t="n">
         <v>0.0</v>
@@ -8045,6 +8715,854 @@
         <v>0.0</v>
       </c>
       <c r="BR18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2.46e5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>3.7e4</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD19" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="BE19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN19" s="0" t="n">
+        <v>15884.0</v>
+      </c>
+      <c r="BO19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2.46e5</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>3.7e4</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD20" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="BE20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI20" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ20" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN20" s="0" t="n">
+        <v>16720.0</v>
+      </c>
+      <c r="BO20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>4.959e5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1.369e5</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>3.59e5</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>3.59e5</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD21" s="0" t="n">
+        <v>3.59e5</v>
+      </c>
+      <c r="BE21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7.546e5</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1.586e5</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>2.98e5</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>5.96e5</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD22" s="0" t="n">
+        <v>2.98e5</v>
+      </c>
+      <c r="BE22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI22" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ22" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN22" s="0" t="n">
+        <v>56620.0</v>
+      </c>
+      <c r="BO22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR22" s="0" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -8098,7 +9616,7 @@
   <sheetData>
     <row r="1" customHeight="1" ht="25">
       <c r="A1" s="4" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
@@ -8106,16 +9624,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8180,7 +9698,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -8189,7 +9707,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>25</v>
@@ -8257,7 +9775,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -8266,7 +9784,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>25</v>
@@ -8331,16 +9849,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -8402,10 +9920,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -8467,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -8476,19 +9994,19 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -8499,13 +10017,13 @@
         <v>29</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1.21e5</v>
@@ -8523,7 +10041,7 @@
         <v>-6050.0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -8534,13 +10052,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1.21e5</v>
@@ -8558,7 +10076,7 @@
         <v>-6050.0</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -8566,19 +10084,19 @@
         <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
@@ -8590,10 +10108,360 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>-17950.0</v>
+        <v>-6050.0</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1.21e5</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>-1.21e4</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1.35e5</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>-6750.0</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9.27e5</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>-46350.0</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>-31350.0</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.21e5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>-30250.0</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.21e5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>-6050.0</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>-10450.0</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3.773e5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>-18865.0</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>-10450.0</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>93</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2.98e5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>-2.98e4</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +10523,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -8664,49 +10532,49 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +10636,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -8777,61 +10645,61 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
@@ -8857,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>-4040.0</v>
+        <v>-4230.0</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0.0</v>
@@ -8866,7 +10734,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>-4040.0</v>
+        <v>-4230.0</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1.21e5</v>
@@ -8881,7 +10749,7 @@
         <v>0.0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>2.0e4</v>
+        <v>9196.0</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0.0</v>
@@ -8890,7 +10758,7 @@
         <v>0.0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.0</v>
+        <v>-6050.0</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>0.0</v>
@@ -8902,13 +10770,13 @@
         <v>0</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -8934,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-3782.0</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.0</v>
@@ -8943,7 +10811,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-3782.0</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1.21e5</v>
@@ -8958,16 +10826,16 @@
         <v>0.0</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>30250.0</v>
+        <v>2.0e4</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0.0</v>
+        <v>-6050.0</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>0.0</v>
@@ -8979,13 +10847,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -8996,13 +10864,13 @@
         <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1.21e5</v>
@@ -9011,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>-3448.0</v>
+        <v>-4598.0</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0.0</v>
@@ -9020,7 +10888,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>-3448.0</v>
+        <v>-4598.0</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>1.21e5</v>
@@ -9035,7 +10903,7 @@
         <v>0.0</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>28738.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>0.0</v>
@@ -9056,13 +10924,13 @@
         <v>0</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
@@ -9073,22 +10941,22 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1.21e5</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>-3448.0</v>
+        <v>-5996.0</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0.0</v>
@@ -9097,10 +10965,10 @@
         <v>0.0</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>-3448.0</v>
+        <v>-5996.0</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.42e5</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0.0</v>
@@ -9112,7 +10980,7 @@
         <v>0.0</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>28738.0</v>
+        <v>8.0e4</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>0.0</v>
@@ -9121,7 +10989,7 @@
         <v>0.0</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>-6050.0</v>
+        <v>-1.21e4</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>0.0</v>
@@ -9133,13 +11001,13 @@
         <v>0</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -9147,25 +11015,25 @@
         <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="F6" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>-12278.0</v>
+        <v>-3630.0</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0.0</v>
@@ -9174,10 +11042,10 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>-12278.0</v>
+        <v>-3630.0</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>3.59e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0.0</v>
@@ -9189,7 +11057,7 @@
         <v>0.0</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>34105.0</v>
+        <v>30250.0</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>0.0</v>
@@ -9198,7 +11066,7 @@
         <v>0.0</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>-17950.0</v>
+        <v>0.0</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>0.0</v>
@@ -9210,13 +11078,13 @@
         <v>0</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
@@ -9224,25 +11092,25 @@
         <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>-6760.0</v>
+        <v>-4720.0</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.0</v>
@@ -9251,10 +11119,10 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>-6760.0</v>
+        <v>-4720.0</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.35e5</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0.0</v>
@@ -9266,7 +11134,7 @@
         <v>0.0</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>4.0e4</v>
+        <v>10260.0</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>0.0</v>
@@ -9275,7 +11143,7 @@
         <v>0.0</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0.0</v>
+        <v>-6750.0</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>0.0</v>
@@ -9287,13 +11155,13 @@
         <v>0</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -9304,13 +11172,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1.21e5</v>
@@ -9319,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-3840.0</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.0</v>
@@ -9328,7 +11196,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-3840.0</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>1.21e5</v>
@@ -9343,7 +11211,7 @@
         <v>0.0</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>30250.0</v>
+        <v>2.5e4</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>0.0</v>
@@ -9364,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
@@ -9381,22 +11249,22 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1.21e5</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>-9680.0</v>
+        <v>-3630.0</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0.0</v>
@@ -9405,10 +11273,10 @@
         <v>0.0</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>-9680.0</v>
+        <v>-3630.0</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>2.42e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0.0</v>
@@ -9420,7 +11288,7 @@
         <v>0.0</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.0</v>
+        <v>30250.0</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>0.0</v>
@@ -9441,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -9458,22 +11326,22 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1.21e5</v>
+        <v>9.27e5</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-32410.0</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0.0</v>
@@ -9482,10 +11350,10 @@
         <v>0.0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-32410.0</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1.21e5</v>
+        <v>9.27e5</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0.0</v>
@@ -9497,16 +11365,16 @@
         <v>0.0</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>30250.0</v>
+        <v>7.0e4</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0.0</v>
+        <v>-46350.0</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>0.0</v>
@@ -9518,13 +11386,13 @@
         <v>0</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
@@ -9535,13 +11403,13 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1.21e5</v>
@@ -9550,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>-4840.0</v>
+        <v>-3840.0</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0.0</v>
@@ -9559,7 +11427,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>-4840.0</v>
+        <v>-3840.0</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>1.21e5</v>
@@ -9574,7 +11442,7 @@
         <v>0.0</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.0</v>
+        <v>2.5e4</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>0.0</v>
@@ -9595,13 +11463,13 @@
         <v>0</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -9612,22 +11480,22 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-21920.0</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0.0</v>
@@ -9636,10 +11504,10 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-21920.0</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1.21e5</v>
+        <v>6.27e5</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0.0</v>
@@ -9651,7 +11519,7 @@
         <v>0.0</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>30250.0</v>
+        <v>47652.0</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>0.0</v>
@@ -9660,7 +11528,7 @@
         <v>0.0</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>0.0</v>
+        <v>-31350.0</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>0.0</v>
@@ -9672,13 +11540,13 @@
         <v>0</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
@@ -9689,22 +11557,22 @@
         <v>29</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1.21e5</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>-19360.0</v>
+        <v>-21151.0</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0.0</v>
@@ -9713,10 +11581,10 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>-19360.0</v>
+        <v>-21151.0</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>4.84e5</v>
+        <v>6.05e5</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>0.0</v>
@@ -9728,7 +11596,7 @@
         <v>0.0</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.0</v>
+        <v>45980.0</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>0.0</v>
@@ -9737,7 +11605,7 @@
         <v>0.0</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>0.0</v>
+        <v>-30250.0</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>0.0</v>
@@ -9749,13 +11617,13 @@
         <v>0</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -9766,22 +11634,22 @@
         <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1.33e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>-4894.556954</v>
+        <v>-4598.0</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0.0</v>
@@ -9790,10 +11658,10 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>-4894.556954</v>
+        <v>-4598.0</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1.33e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>0.0</v>
@@ -9805,7 +11673,7 @@
         <v>0.0</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>10640.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>0.0</v>
@@ -9814,7 +11682,7 @@
         <v>0.0</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>0.0</v>
+        <v>-6050.0</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>0.0</v>
@@ -9826,13 +11694,13 @@
         <v>0</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -9843,22 +11711,22 @@
         <v>29</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>-7691.443045999999</v>
+        <v>-3630.0</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0.0</v>
@@ -9867,10 +11735,10 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>-7691.443045999999</v>
+        <v>-3630.0</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>2.09e5</v>
+        <v>1.21e5</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>0.0</v>
@@ -9882,7 +11750,7 @@
         <v>0.0</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>16720.0</v>
+        <v>30250.0</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>0.0</v>
@@ -9903,13 +11771,13 @@
         <v>0</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -9920,22 +11788,22 @@
         <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-6751.0</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0.0</v>
@@ -9944,10 +11812,10 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>-3630.0</v>
+        <v>-6751.0</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>1.21e5</v>
+        <v>2.09e5</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>0.0</v>
@@ -9959,7 +11827,7 @@
         <v>0.0</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>30250.0</v>
+        <v>29783.0</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>0.0</v>
@@ -9968,7 +11836,7 @@
         <v>0.0</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>0.0</v>
+        <v>-10450.0</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>0.0</v>
@@ -9980,13 +11848,13 @@
         <v>0</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -9997,13 +11865,13 @@
         <v>29</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1.21e5</v>
@@ -10057,13 +11925,13 @@
         <v>0</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
@@ -10074,22 +11942,22 @@
         <v>29</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1.21e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>-4840.0</v>
+        <v>-13190.0</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0.0</v>
@@ -10098,31 +11966,31 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>-4840.0</v>
+        <v>-13190.0</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>1.21e5</v>
+        <v>3.773e5</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0</v>
+        <v>28675.0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>0</v>
+        <v>-18865.0</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>0.0</v>
@@ -10134,13 +12002,321 @@
         <v>0</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>-7307.0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>-7307.0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>15884.0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>-10450.0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>-7691.0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>-7691.0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2.09e5</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>16720.0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>3.59e5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>-14360.0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>-14360.0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>3.59e5</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2.98e5</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>-20383.0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>-20383.0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>5.96e5</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>56620.0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>-2.98e4</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -10202,7 +12378,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -10211,10 +12387,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
